--- a/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_2_8.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_2_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_3</t>
+          <t>model_2_8_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9781406754634849</v>
+        <v>0.9999626478658622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8165881775245889</v>
+        <v>0.7298692716890334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7488283954576789</v>
+        <v>0.9998050287170798</v>
       </c>
       <c r="E2" t="n">
-        <v>0.984611857724356</v>
+        <v>0.9999076047149772</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9779001894790373</v>
+        <v>0.9998849514318428</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1461734038286104</v>
+        <v>2.217384035235293e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>1.226475701426861</v>
+        <v>0.1603612693652555</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09410953243410995</v>
+        <v>9.325687431843208e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1962206244568722</v>
+        <v>4.356281532412517e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1451652256772762</v>
+        <v>6.840984482127862e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8578858675444379</v>
+        <v>0.002796437843228959</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3823263054363517</v>
+        <v>0.004708910739476055</v>
       </c>
       <c r="N2" t="n">
-        <v>1.014179021320983</v>
+        <v>1.000024228411333</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3986027277833353</v>
+        <v>0.004909378818444581</v>
       </c>
       <c r="P2" t="n">
-        <v>125.8459233291444</v>
+        <v>143.4331946528153</v>
       </c>
       <c r="Q2" t="n">
-        <v>200.1973486461047</v>
+        <v>217.7846199697755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_2</t>
+          <t>model_2_8_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9771733269027737</v>
+        <v>0.9999632096893496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8163610684687761</v>
+        <v>0.7298634641573915</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8424390715883856</v>
+        <v>0.9998092187840398</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9900629782207653</v>
+        <v>0.9999086553386553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9858610766228811</v>
+        <v>0.9998870542231906</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1526420681083173</v>
+        <v>2.184031766075495e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>1.227994380728822</v>
+        <v>0.1603647169669105</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05903527721503588</v>
+        <v>9.1252719952581e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1267111119611337</v>
+        <v>4.30674640164363e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0928731945880848</v>
+        <v>6.715948914890118e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8979528519320552</v>
+        <v>0.002786462460788532</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3906943410241788</v>
+        <v>0.004673362564658872</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01480649065766</v>
+        <v>1.000023863985287</v>
       </c>
       <c r="O3" t="n">
-        <v>0.407327007970358</v>
+        <v>0.004872317284230565</v>
       </c>
       <c r="P3" t="n">
-        <v>125.7593190448926</v>
+        <v>143.463505724574</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.1107443618528</v>
+        <v>217.8149310415342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_4</t>
+          <t>model_2_8_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.978224170688524</v>
+        <v>0.9999638123498097</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8161547091523679</v>
+        <v>0.7298569276539484</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6472848552324857</v>
+        <v>0.99981383743902</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9786372202660016</v>
+        <v>0.9999097976803593</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9692049716332755</v>
+        <v>0.9998893637277732</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1456150708743147</v>
+        <v>2.148255237804644e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>1.229374306427842</v>
+        <v>0.1603685973177165</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1321560907212629</v>
+        <v>8.904356729916486e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2724057202261828</v>
+        <v>4.252886920960032e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2022807950481451</v>
+        <v>6.578621825438259e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8211982742271232</v>
+        <v>0.002775246592055199</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3815954282670518</v>
+        <v>0.004634927440429508</v>
       </c>
       <c r="N4" t="n">
-        <v>1.014124862256093</v>
+        <v>1.000023473070394</v>
       </c>
       <c r="O4" t="n">
-        <v>0.397840735659814</v>
+        <v>0.004832245897191082</v>
       </c>
       <c r="P4" t="n">
-        <v>125.8535772796481</v>
+        <v>143.4965389391785</v>
       </c>
       <c r="Q4" t="n">
-        <v>200.2050025966084</v>
+        <v>217.8479642561387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_5</t>
+          <t>model_2_8_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9776635310448164</v>
+        <v>0.9999644512091177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8152469749394398</v>
+        <v>0.7298497862238875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5424729791201144</v>
+        <v>0.9998189101193858</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9723863574719774</v>
+        <v>0.9999110196368426</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9601483697325578</v>
+        <v>0.9998918887546635</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1493640707532951</v>
+        <v>2.110329789557049e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>1.235444329289424</v>
+        <v>0.1603728367790944</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1714272363288673</v>
+        <v>8.661724939094328e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3521130805343219</v>
+        <v>4.195273737986613e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2617701584315946</v>
+        <v>6.428479411233651e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7876767572126446</v>
+        <v>0.002762883927401646</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3864764815008737</v>
+        <v>0.004593832593333206</v>
       </c>
       <c r="N5" t="n">
-        <v>1.014488520403362</v>
+        <v>1.000023058675167</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4029295854349728</v>
+        <v>0.004789401557375829</v>
       </c>
       <c r="P5" t="n">
-        <v>125.8027370509566</v>
+        <v>143.5321624626546</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.1541623679169</v>
+        <v>217.8835877796149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_1</t>
+          <t>model_2_8_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9750186076966233</v>
+        <v>0.9999651253510725</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8152379502223659</v>
+        <v>0.7298419105172398</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9217252574265881</v>
+        <v>0.9998244464162945</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9946783447113735</v>
+        <v>0.9999123617869627</v>
       </c>
       <c r="F6" t="n">
-        <v>0.992602188699184</v>
+        <v>0.9998946482039577</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1670506853614147</v>
+        <v>2.070309810974535e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>1.235504677614052</v>
+        <v>0.1603775121387733</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02932815370752993</v>
+        <v>8.396917867370761e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06785864759849995</v>
+        <v>4.131993628178768e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04859340065301494</v>
+        <v>6.264397840268926e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9415793795770629</v>
+        <v>0.002749088402218824</v>
       </c>
       <c r="M6" t="n">
-        <v>0.408718344782094</v>
+        <v>0.004550065725870929</v>
       </c>
       <c r="N6" t="n">
-        <v>1.016204146358947</v>
+        <v>1.000022621393899</v>
       </c>
       <c r="O6" t="n">
-        <v>0.426118330883079</v>
+        <v>0.004743771443755777</v>
       </c>
       <c r="P6" t="n">
-        <v>125.5789160149112</v>
+        <v>143.570454403509</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.9303413318714</v>
+        <v>217.9218797204693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_6</t>
+          <t>model_2_8_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9766464807913339</v>
+        <v>0.9999658333068792</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8140109772715283</v>
+        <v>0.7298330304751102</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4377352828411771</v>
+        <v>0.9998305250347939</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9660499413800488</v>
+        <v>0.9999138096750462</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9510109109045832</v>
+        <v>0.9998976651261245</v>
       </c>
       <c r="G7" t="n">
-        <v>0.156165090481419</v>
+        <v>2.028282496079527e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>1.243709451385994</v>
+        <v>0.1603827837153793</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2106705880723793</v>
+        <v>8.10617096714466e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4329113666500373</v>
+        <v>4.063728152104821e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3217906401285556</v>
+        <v>6.085006492265945e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7571084692933607</v>
+        <v>0.0027337313619501</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3951772899363259</v>
+        <v>0.004503645741040838</v>
       </c>
       <c r="N7" t="n">
-        <v>1.015148228675891</v>
+        <v>1.000022162179322</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4120008052986787</v>
+        <v>0.004695375264068853</v>
       </c>
       <c r="P7" t="n">
-        <v>125.7136831179824</v>
+        <v>143.6114721821455</v>
       </c>
       <c r="Q7" t="n">
-        <v>200.0651084349427</v>
+        <v>217.9628974991057</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_0</t>
+          <t>model_2_8_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.971294511861288</v>
+        <v>0.9999665649848282</v>
       </c>
       <c r="C8" t="n">
-        <v>0.812924015418903</v>
+        <v>0.7298230519002793</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9780684083375005</v>
+        <v>0.9998371591147671</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9980705562886257</v>
+        <v>0.9999153570092907</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9975017140093203</v>
+        <v>0.9999009474547755</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1919537313601863</v>
+        <v>1.984846932344244e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>1.250977970299498</v>
+        <v>0.1603887074284508</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008217377281379293</v>
+        <v>7.788855743576992e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02460314202445817</v>
+        <v>3.990773957611627e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01641028773977016</v>
+        <v>5.889833621137554e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9889762949042945</v>
+        <v>0.002716580805934887</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4381252462027112</v>
+        <v>0.004455162098447423</v>
       </c>
       <c r="N8" t="n">
-        <v>1.018619776089975</v>
+        <v>1.000021687577409</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4567771449778497</v>
+        <v>0.00464482757243526</v>
       </c>
       <c r="P8" t="n">
-        <v>125.3010018369887</v>
+        <v>143.654767331947</v>
       </c>
       <c r="Q8" t="n">
-        <v>199.6524271539489</v>
+        <v>218.0061926489073</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_7</t>
+          <t>model_2_8_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9753186335533474</v>
+        <v>0.999967310822019</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8125599924318304</v>
+        <v>0.7298119844490051</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3353976345543959</v>
+        <v>0.9998443765163897</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9597716436618982</v>
+        <v>0.9999170209162082</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9419982030705386</v>
+        <v>0.999904510286019</v>
       </c>
       <c r="G9" t="n">
-        <v>0.165044411076009</v>
+        <v>1.940570814848681e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>1.253412193690224</v>
+        <v>0.1603952775456163</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2490146845247815</v>
+        <v>7.443639614343863e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5129685611257837</v>
+        <v>3.91232355860643e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3809916801307505</v>
+        <v>5.677981586475147e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7292773997009715</v>
+        <v>0.002697538545445434</v>
       </c>
       <c r="M9" t="n">
-        <v>0.406256582809447</v>
+        <v>0.004405191045628647</v>
       </c>
       <c r="N9" t="n">
-        <v>1.016009534992423</v>
+        <v>1.000021203791123</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4235517666067065</v>
+        <v>0.004592729148443648</v>
       </c>
       <c r="P9" t="n">
-        <v>125.6030813665233</v>
+        <v>143.6998866014308</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.9545066834836</v>
+        <v>218.051311918391</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_8</t>
+          <t>model_2_8_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.973791954463889</v>
+        <v>0.9999680586188889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.810980692244975</v>
+        <v>0.7297996594520029</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2370300884089527</v>
+        <v>0.9998522149490062</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9536564791683898</v>
+        <v>0.9999187945403226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9332571360797256</v>
+        <v>0.9999083660791057</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1752533211769274</v>
+        <v>1.896178362336842e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>1.263972981311735</v>
+        <v>0.1604025941962489</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2858712543241697</v>
+        <v>7.068718900672338e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5909455757698397</v>
+        <v>3.828700179198231e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4384084150470047</v>
+        <v>5.448709539935285e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7039811916470557</v>
+        <v>0.002676210640806515</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4186326804932068</v>
+        <v>0.004354513017935348</v>
       </c>
       <c r="N10" t="n">
-        <v>1.016999813320721</v>
+        <v>1.000020718733694</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4364547403909181</v>
+        <v>0.004539893652193467</v>
       </c>
       <c r="P10" t="n">
-        <v>125.4830456043322</v>
+        <v>143.746169985199</v>
       </c>
       <c r="Q10" t="n">
-        <v>199.8344709212924</v>
+        <v>218.0975953021593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_9</t>
+          <t>model_2_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.972151441565083</v>
+        <v>0.999968788887575</v>
       </c>
       <c r="C11" t="n">
-        <v>0.809338802572931</v>
+        <v>0.7297860966918611</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1436281069139067</v>
+        <v>0.9998607138375648</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9477784951282127</v>
+        <v>0.9999206654220145</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9248878962118603</v>
+        <v>0.9999125260667184</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1862234384851107</v>
+        <v>1.852826458533747e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>1.2749523051089</v>
+        <v>0.1604106456365498</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3208673153754781</v>
+        <v>6.662207864643215e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6658982034652974</v>
+        <v>3.740491269384698e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4933827594203877</v>
+        <v>5.201349567013957e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6810041727148851</v>
+        <v>0.002652477093349145</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4315361380986658</v>
+        <v>0.00430444707080218</v>
       </c>
       <c r="N11" t="n">
-        <v>1.018063929795622</v>
+        <v>1.000020245045897</v>
       </c>
       <c r="O11" t="n">
-        <v>0.449907524900481</v>
+        <v>0.004487696294040043</v>
       </c>
       <c r="P11" t="n">
-        <v>125.3616160881061</v>
+        <v>143.7924263527579</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.7130414050663</v>
+        <v>218.1438516697181</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_10</t>
+          <t>model_2_8_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9704608938045488</v>
+        <v>0.9999694716189584</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8076831592859047</v>
+        <v>0.7297709000500049</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05578630416572661</v>
+        <v>0.99986985276143</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9421867742574201</v>
+        <v>0.9999226280359765</v>
       </c>
       <c r="F12" t="n">
-        <v>0.916955092191352</v>
+        <v>0.9999169799841703</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1975281391440598</v>
+        <v>1.81229657436473e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>1.286023599392781</v>
+        <v>0.1604196670196164</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3537800763536309</v>
+        <v>6.225083247345711e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7372005700149016</v>
+        <v>3.647957338067613e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5454903231842663</v>
+        <v>4.93651202352004e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6601622296962961</v>
+        <v>0.002626119091364116</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4444413787487161</v>
+        <v>0.004257107673485286</v>
       </c>
       <c r="N12" t="n">
-        <v>1.019160501315968</v>
+        <v>1.000019802193108</v>
       </c>
       <c r="O12" t="n">
-        <v>0.463362168362535</v>
+        <v>0.004438341560573306</v>
       </c>
       <c r="P12" t="n">
-        <v>125.243748456222</v>
+        <v>143.8366611967112</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.5951737731823</v>
+        <v>218.1880865136714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_11</t>
+          <t>model_2_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9687673480161207</v>
+        <v>0.9999700802566942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.806049607192287</v>
+        <v>0.7297539781318483</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.02622517685250392</v>
+        <v>0.9998796807425006</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9369119361715911</v>
+        <v>0.9999246750622561</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9094961210861474</v>
+        <v>0.999921744228837</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2088528876293393</v>
+        <v>1.776165209190978e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>1.296947169764619</v>
+        <v>0.160429712601223</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3845083194881135</v>
+        <v>5.755000278320849e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.804462231921194</v>
+        <v>3.551443508649128e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5944854592638373</v>
+        <v>4.653221893484988e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6412769672884864</v>
+        <v>0.00259650816415748</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4570042534039911</v>
+        <v>0.004214457508613627</v>
       </c>
       <c r="N13" t="n">
-        <v>1.020259017503057</v>
+        <v>1.000019407401063</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4764598706006206</v>
+        <v>0.004393875689885048</v>
       </c>
       <c r="P13" t="n">
-        <v>125.132250323606</v>
+        <v>143.876937603067</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.4836756405663</v>
+        <v>218.2283629200273</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9671050168670881</v>
+        <v>0.9999705634871893</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8044637975369188</v>
+        <v>0.7297353598321821</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1023403193312225</v>
+        <v>0.9998901703604478</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9319701023018859</v>
+        <v>0.9999267661800577</v>
       </c>
       <c r="F14" t="n">
-        <v>0.902528605913869</v>
+        <v>0.9999267922038859</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2199689036772518</v>
+        <v>1.747478559557968e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>1.307551486232048</v>
+        <v>0.1604407652281735</v>
       </c>
       <c r="I14" t="n">
-        <v>0.413027309454676</v>
+        <v>5.253270501559034e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8674776180871038</v>
+        <v>3.452850838479184e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6402524087783708</v>
+        <v>4.353060670019109e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6241701804969003</v>
+        <v>0.002563594278549132</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4690084260194605</v>
+        <v>0.004180285348583238</v>
       </c>
       <c r="N14" t="n">
-        <v>1.021337286356483</v>
+        <v>1.000019093954256</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4889750856963936</v>
+        <v>0.004358248750256042</v>
       </c>
       <c r="P14" t="n">
-        <v>125.0285381790836</v>
+        <v>143.9095030782565</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3799634960438</v>
+        <v>218.2609283952168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_13</t>
+          <t>model_2_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9654977872573639</v>
+        <v>0.9999708671868139</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8029432311114764</v>
+        <v>0.7297142202812756</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1726468613290923</v>
+        <v>0.9999013022017155</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9273657471224402</v>
+        <v>0.9999288809206364</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8960542784455717</v>
+        <v>0.999932107847077</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2307164554780894</v>
+        <v>1.729449637923664e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>1.317719520920546</v>
+        <v>0.1604533145787727</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4393699201432333</v>
+        <v>4.720822488451165e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.926189672625491</v>
+        <v>3.353144394302641e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6827797963843623</v>
+        <v>4.036983441376904e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.608690602730848</v>
+        <v>0.002526683758764428</v>
       </c>
       <c r="M15" t="n">
-        <v>0.480329528009771</v>
+        <v>0.004158665216056305</v>
       </c>
       <c r="N15" t="n">
-        <v>1.022379813670899</v>
+        <v>1.000018896959904</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5007781504363434</v>
+        <v>0.004335708203927594</v>
       </c>
       <c r="P15" t="n">
-        <v>124.9331315757518</v>
+        <v>143.9302444708838</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.2845568927121</v>
+        <v>218.2816697878441</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_14</t>
+          <t>model_2_8_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9639620208847253</v>
+        <v>0.9999709066608566</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8014994364157866</v>
+        <v>0.7296911276096856</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2373338157293738</v>
+        <v>0.9999129825989925</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9230962039180207</v>
+        <v>0.9999309470407873</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8900651971071964</v>
+        <v>0.9999376242530624</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2409861322834778</v>
+        <v>1.727106288231428e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>1.327374182698687</v>
+        <v>0.1604670233861799</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4636069713190216</v>
+        <v>4.162136447849933e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9806323999352586</v>
+        <v>3.255730321114945e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7221197872526159</v>
+        <v>3.708968513874265e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5946874532315524</v>
+        <v>0.002485783491472141</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4909033838582474</v>
+        <v>0.004155846830949653</v>
       </c>
       <c r="N16" t="n">
-        <v>1.023375986453151</v>
+        <v>1.00001887135512</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5118021572191886</v>
+        <v>0.00433276983433209</v>
       </c>
       <c r="P16" t="n">
-        <v>124.8460317790786</v>
+        <v>143.93295624538</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.1974570960389</v>
+        <v>218.2843815623402</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_15</t>
+          <t>model_2_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.962507996379746</v>
+        <v>0.9999705938189075</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8001393473444892</v>
+        <v>0.7296651115133215</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2966602132604106</v>
+        <v>0.9999251460066988</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9191524735195382</v>
+        <v>0.9999329381193434</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8845453148387445</v>
+        <v>0.9999433063568136</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2507092008434409</v>
+        <v>1.745677937740927e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>1.336469104581087</v>
+        <v>0.1604824676648186</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4858355171883668</v>
+        <v>3.580347495780968e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.0309205521773</v>
+        <v>3.161854332298323e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.758377788399357</v>
+        <v>3.371100914039645e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5820310849785735</v>
+        <v>0.002439761684789399</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5007086985897498</v>
+        <v>0.00417813108667132</v>
       </c>
       <c r="N17" t="n">
-        <v>1.024319137483408</v>
+        <v>1.000019074279628</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5220249044986106</v>
+        <v>0.004356002776954596</v>
       </c>
       <c r="P17" t="n">
-        <v>124.7669231477586</v>
+        <v>143.9115649635204</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.1183484647188</v>
+        <v>218.2629902804806</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_16</t>
+          <t>model_2_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9611415527485421</v>
+        <v>0.9999698014092968</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7988662907266213</v>
+        <v>0.7296365743267379</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3509311608765635</v>
+        <v>0.9999376340399142</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9155218227168558</v>
+        <v>0.9999347641392299</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8794733841464484</v>
+        <v>0.9999490529040177</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2598466156971969</v>
+        <v>1.792718795259661e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>1.344982040046657</v>
+        <v>0.1604994085715168</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5061698758998892</v>
+        <v>2.983031354337613e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>1.077216495828326</v>
+        <v>3.075760580789559e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7916933665066124</v>
+        <v>3.02940139635562e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5705964193070029</v>
+        <v>0.00238831052931472</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5097515234868817</v>
+        <v>0.004234051009682879</v>
       </c>
       <c r="N18" t="n">
-        <v>1.025205479298243</v>
+        <v>1.000019588275051</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5314527011728415</v>
+        <v>0.004414303326858956</v>
       </c>
       <c r="P18" t="n">
-        <v>124.6953275233513</v>
+        <v>143.8583842348316</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.0467528403115</v>
+        <v>218.2098095517919</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_17</t>
+          <t>model_2_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9598652246874145</v>
+        <v>0.9999683647370827</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7976810063111391</v>
+        <v>0.7296047840532414</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4004599368556294</v>
+        <v>0.9999502010061949</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9121889718807791</v>
+        <v>0.9999363084496993</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8748257865091718</v>
+        <v>0.9999547196944004</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2683814273189067</v>
+        <v>1.87800586398742e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>1.352908042390718</v>
+        <v>0.1605182806511327</v>
       </c>
       <c r="I19" t="n">
-        <v>0.524727427251751</v>
+        <v>2.381939758978756e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>1.119715067817206</v>
+        <v>3.002948952184517e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8222216626308023</v>
+        <v>2.692444355581636e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.560266545148383</v>
+        <v>0.002330949346493538</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5180554288094148</v>
+        <v>0.004333596501737811</v>
       </c>
       <c r="N19" t="n">
-        <v>1.026033367770326</v>
+        <v>1.000020520170541</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5401101209364088</v>
+        <v>0.004518086676598244</v>
       </c>
       <c r="P19" t="n">
-        <v>124.630692148095</v>
+        <v>143.76542992345</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.9821174650552</v>
+        <v>218.1168552404103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_18</t>
+          <t>model_2_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9586791398232741</v>
+        <v>0.9999660904130183</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7965823156855185</v>
+        <v>0.7295692358690282</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.445580294334853</v>
+        <v>0.9999625609776458</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9091369117275855</v>
+        <v>0.9999374576585246</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8705765741844065</v>
+        <v>0.9999601466337348</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2763127822668324</v>
+        <v>2.01301956502278e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>1.360254991663249</v>
+        <v>0.1605393835888831</v>
       </c>
       <c r="I20" t="n">
-        <v>0.541633222607747</v>
+        <v>1.790748950302493e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>1.158633160619576</v>
+        <v>2.948765698336249e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8501331175950927</v>
+        <v>2.369749268050038e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.550941140794373</v>
+        <v>0.002266505466287465</v>
       </c>
       <c r="M20" t="n">
-        <v>0.525654622605787</v>
+        <v>0.004486668658395425</v>
       </c>
       <c r="N20" t="n">
-        <v>1.026802720114633</v>
+        <v>1.000021995407772</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5480328281451922</v>
+        <v>0.004677675431867819</v>
       </c>
       <c r="P20" t="n">
-        <v>124.5724435716939</v>
+        <v>143.6265791980482</v>
       </c>
       <c r="Q20" t="n">
-        <v>198.9238688886541</v>
+        <v>217.9780045150085</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_19</t>
+          <t>model_2_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9575813353634295</v>
+        <v>0.9999627160172695</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7955676834601937</v>
+        <v>0.7295300109468752</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.4866225445329959</v>
+        <v>0.9999742639902744</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9063474290224844</v>
+        <v>0.9999380185396907</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8666984522624908</v>
+        <v>0.9999650758247518</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2836538057447383</v>
+        <v>2.213338273301878e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>1.367039842025947</v>
+        <v>0.1605626691971017</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5570110237060403</v>
+        <v>1.230981192964757e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>1.194203018793614</v>
+        <v>2.922321099293946e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8756070212498273</v>
+        <v>2.076651146129351e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5425272755601543</v>
+        <v>0.002194483167828874</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5325915937608651</v>
+        <v>0.004704612920636381</v>
       </c>
       <c r="N21" t="n">
-        <v>1.027514809493992</v>
+        <v>1.000024184205014</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5552651205238519</v>
+        <v>0.004904898032559191</v>
       </c>
       <c r="P21" t="n">
-        <v>124.5200015565097</v>
+        <v>143.436847116478</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.8714268734699</v>
+        <v>217.7882724334382</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_20</t>
+          <t>model_2_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9565690493378923</v>
+        <v>0.9999579191607909</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7946336639845859</v>
+        <v>0.7294863364311562</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.5239012564256345</v>
+        <v>0.9999847145978118</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9038030945214327</v>
+        <v>0.9999378046386718</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8631655604292042</v>
+        <v>0.9999691942633507</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2904229670586538</v>
+        <v>2.498100395209724e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>1.373285634560101</v>
+        <v>0.1605885962762733</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5709786939462922</v>
+        <v>7.311173263148387e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>1.226646889904278</v>
+        <v>2.932406170825899e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8988132401350968</v>
+        <v>1.831761748570369e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5349339487984597</v>
+        <v>0.002113925234797219</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5389090526783288</v>
+        <v>0.004998100034222728</v>
       </c>
       <c r="N22" t="n">
-        <v>1.028171427456502</v>
+        <v>1.000027295679487</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5618515267463748</v>
+        <v>0.005210879500172987</v>
       </c>
       <c r="P22" t="n">
-        <v>124.4728338229824</v>
+        <v>143.1947897276767</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.8242591399427</v>
+        <v>217.546215044637</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_21</t>
+          <t>model_2_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.955638402042736</v>
+        <v>0.999951293664735</v>
       </c>
       <c r="C23" t="n">
-        <v>0.793776272925051</v>
+        <v>0.7294391795871664</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.5577197561055041</v>
+        <v>0.9999931006279517</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9014857146600749</v>
+        <v>0.9999365410305407</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8599518173718176</v>
+        <v>0.9999720659178758</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2966462098066012</v>
+        <v>2.891418461742245e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>1.379019012523133</v>
+        <v>0.1606165906159352</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5836498842199498</v>
+        <v>3.300044305761676e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>1.256196767683815</v>
+        <v>2.99198315859094e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9199230924459025</v>
+        <v>1.661008262813709e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5280855253013627</v>
+        <v>0.00202497776109865</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5446523751959603</v>
+        <v>0.0053771911457026</v>
       </c>
       <c r="N23" t="n">
-        <v>1.028775090566874</v>
+        <v>1.00003159329855</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5678393543938985</v>
+        <v>0.005606109305095341</v>
       </c>
       <c r="P23" t="n">
-        <v>124.4304301260194</v>
+        <v>142.9023565320908</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.7818554429797</v>
+        <v>217.2537818490511</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_22</t>
+          <t>model_2_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.954784945332692</v>
+        <v>0.9999423373179288</v>
       </c>
       <c r="C24" t="n">
-        <v>0.792991013702448</v>
+        <v>0.7293868074751391</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.5883751797300736</v>
+        <v>0.9999984142161158</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8993778824516501</v>
+        <v>0.9999339669687587</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8570315414590055</v>
+        <v>0.9999731827745936</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3023532787564718</v>
+        <v>3.423105897565341e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>1.384270044560467</v>
+        <v>0.1606476809639921</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5951359261598208</v>
+        <v>7.584975908605674e-07</v>
       </c>
       <c r="J24" t="n">
-        <v>1.283074615885288</v>
+        <v>3.113345821216896e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9391052710225545</v>
+        <v>1.594598053653093e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5219082791221393</v>
+        <v>0.001938704111391852</v>
       </c>
       <c r="M24" t="n">
-        <v>0.549866600873768</v>
+        <v>0.005850731490647423</v>
       </c>
       <c r="N24" t="n">
-        <v>1.029328684108524</v>
+        <v>1.000037402820803</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5732755604537457</v>
+        <v>0.006099809242888114</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3923182961601</v>
+        <v>142.5647543376762</v>
       </c>
       <c r="Q24" t="n">
-        <v>198.7437436131203</v>
+        <v>216.9161796546364</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_23</t>
+          <t>model_2_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9540040776893963</v>
+        <v>0.9999304056151276</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7922733054236573</v>
+        <v>0.7293284864316169</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.6161376279602344</v>
+        <v>0.9999992939974371</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8974630821669525</v>
+        <v>0.9999296362425542</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8543811734438298</v>
+        <v>0.9999718196704688</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3075749442827546</v>
+        <v>4.131423318112713e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>1.389069363125483</v>
+        <v>0.1606823028547648</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6055380216790474</v>
+        <v>3.376886651374453e-07</v>
       </c>
       <c r="J25" t="n">
-        <v>1.307491033464703</v>
+        <v>3.317532242441772e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9565145275718751</v>
+        <v>1.675650554477759e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5163358528658193</v>
+        <v>0.001980990970192322</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5545943961876595</v>
+        <v>0.006427614890542769</v>
       </c>
       <c r="N25" t="n">
-        <v>1.029835192850121</v>
+        <v>1.000045142303701</v>
       </c>
       <c r="O25" t="n">
-        <v>0.578204627802035</v>
+        <v>0.00670125176343027</v>
       </c>
       <c r="P25" t="n">
-        <v>124.3580730003721</v>
+        <v>142.1886069765705</v>
       </c>
       <c r="Q25" t="n">
-        <v>198.7094983173323</v>
+        <v>216.5400322935308</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_24</t>
+          <t>model_2_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9532909726761867</v>
+        <v>0.9999121718726831</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7916184261895325</v>
+        <v>0.7292725191621383</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6412603661798553</v>
+        <v>0.999999999999741</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8957252628334555</v>
+        <v>0.9999065361477831</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8519778668992095</v>
+        <v>0.9999629453748036</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3123434807896344</v>
+        <v>5.213857035286214e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>1.393448543579517</v>
+        <v>0.1607155274435874</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6149510648119334</v>
+        <v>1.238896015954538e-13</v>
       </c>
       <c r="J26" t="n">
-        <v>1.329650693071677</v>
+        <v>4.40666266963765e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9723009315589388</v>
+        <v>2.203331341013305e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5113137275075058</v>
+        <v>0.002057288189326336</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5588769818033611</v>
+        <v>0.007220704283715137</v>
       </c>
       <c r="N26" t="n">
-        <v>1.030297747453284</v>
+        <v>1.000056969596097</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5826695319535713</v>
+        <v>0.007528104613991358</v>
       </c>
       <c r="P26" t="n">
-        <v>124.3273035935037</v>
+        <v>141.7232111384552</v>
       </c>
       <c r="Q26" t="n">
-        <v>198.6787289104639</v>
+        <v>216.0746364554154</v>
       </c>
     </row>
   </sheetData>
